--- a/biology/Médecine/1304_en_santé_et_médecine/1304_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1304_en_santé_et_médecine/1304_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1304 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 mars : Boniface de Challant, évêque de Sion, fonde un hôpital à Brigue, dans le Valais, « pour le soulagement des nombreux voyageurs qui fréquent[ent] le passage du Simplon » ; et les évêques de Grenoble, Belley, Genève et Aoste contribuent à la dotation de l'établissement[1].
-25 mars : fondation de l'hôtel-Dieu de Château-Thierry, par testament de Jeanne Ire, reine de Navarre, comtesse de Champagne, reine de France par son mariage avec Philippe le Bel[2],[3].
-Fondation par les frères Sconditi de l'hôpital de l'Annonciade à Naples, en Campanie, voué à l'accueil des enfants trouvés[4].
-Une maison-Dieu, « qualifiée prieuré ou aumônerie » et dont la fondation est peut-être antérieure à 1250, est attestée à Aixe, en Limousin, au bas du faubourg d'Outre-Vienne[5].
-Première mention de l'hôpital Saint-Martin-du-Pont à Rouen, en Normandie[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 mars : Boniface de Challant, évêque de Sion, fonde un hôpital à Brigue, dans le Valais, « pour le soulagement des nombreux voyageurs qui fréquent[ent] le passage du Simplon » ; et les évêques de Grenoble, Belley, Genève et Aoste contribuent à la dotation de l'établissement.
+25 mars : fondation de l'hôtel-Dieu de Château-Thierry, par testament de Jeanne Ire, reine de Navarre, comtesse de Champagne, reine de France par son mariage avec Philippe le Bel,.
+Fondation par les frères Sconditi de l'hôpital de l'Annonciade à Naples, en Campanie, voué à l'accueil des enfants trouvés.
+Une maison-Dieu, « qualifiée prieuré ou aumônerie » et dont la fondation est peut-être antérieure à 1250, est attestée à Aixe, en Limousin, au bas du faubourg d'Outre-Vienne.
+Première mention de l'hôpital Saint-Martin-du-Pont à Rouen, en Normandie.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Richard Leclerc, médecin au Tertre-Saint-Laurent à Angers[7].
-1304-1308 : le médecin et traducteur Armengaud Blaise, de l'école de Montpellier, réside à Barcelone en tant que médecin de Jacques II, roi d'Aragon[8].
-Vers 1304-1310 : fl. Pierre d'Encre, médecin de Mahaut, comtesse d'Artois[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Richard Leclerc, médecin au Tertre-Saint-Laurent à Angers.
+1304-1308 : le médecin et traducteur Armengaud Blaise, de l'école de Montpellier, réside à Barcelone en tant que médecin de Jacques II, roi d'Aragon.
+Vers 1304-1310 : fl. Pierre d'Encre, médecin de Mahaut, comtesse d'Artois.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Maynus et Johannes de Planis collaborent à la traduction de l'hébreu en latin des Canones qui debent considerari in dandis medicinis laxativis (« Règles d'emploi des médicaments laxatifs ») d'Averroès[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maynus et Johannes de Planis collaborent à la traduction de l'hébreu en latin des Canones qui debent considerari in dandis medicinis laxativis (« Règles d'emploi des médicaments laxatifs ») d'Averroès.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hua Shou (mort en 1381), médecin chinois[9], auteur du Shi Si Jing Fa Hui (vers 1341) et du Nanjing Benyi (1361).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hua Shou (mort en 1381), médecin chinois, auteur du Shi Si Jing Fa Hui (vers 1341) et du Nanjing Benyi (1361).</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1304_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1304_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,10 +657,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jacob ben Makhir (né en 1236), astronome, médecin et traducteur juif provençal.
-Après 1304 : Todros Aboulafia (né vers 1234), médecin et financier juif castillan, conseiller à la cour de Sanche IV et de Marie de Molina, neveu du philosophe Meïr Aboulafia[10].</t>
+Après 1304 : Todros Aboulafia (né vers 1234), médecin et financier juif castillan, conseiller à la cour de Sanche IV et de Marie de Molina, neveu du philosophe Meïr Aboulafia.</t>
         </is>
       </c>
     </row>
